--- a/advanced/Transformer.xlsx
+++ b/advanced/Transformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/peye9704_colorado_edu/Documents/2024/AIbyHand/spreadsheets/github/ai-by-hand-excel/advanced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{2E5A64D4-B270-824D-8CBE-5E6901D89F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA428A31-CFF9-404D-BE74-0478B97F215B}"/>
+  <xr:revisionPtr revIDLastSave="470" documentId="8_{2E5A64D4-B270-824D-8CBE-5E6901D89F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7DFA6B-5338-4E4D-B04A-7B1938609DA8}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="740" windowWidth="24960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,13 @@
     <author>tc={70923F54-3559-094F-BE16-1664E7E198F6}</author>
     <author>tc={B98D24C8-17EF-9543-ABC8-2E47B523FADC}</author>
     <author>tc={85B1847A-EAFE-D34C-8936-324CB32A8C69}</author>
+    <author>tc={AA066A56-BF0B-F849-BBFF-96990A89DB97}</author>
+    <author>tc={575F9D59-2E1D-4149-827B-FAE2EC396ABC}</author>
     <author>tc={429757FA-6499-364E-B686-18036D7CE6FE}</author>
+    <author>tc={59D33A8F-C3A4-9D43-9107-14E53F1932A9}</author>
+    <author>tc={A0D0D70F-412C-D24A-B88A-012888FB50CA}</author>
+    <author>tc={5AD61CD2-8013-1648-843A-496DE8D97AF1}</author>
+    <author>tc={C294AE2C-7260-A246-9D1A-71AC1A72DEC8}</author>
     <author>tc={0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}</author>
     <author>tc={3389D202-7469-3447-B71D-7039948E7C2B}</author>
     <author>tc={B92B3D14-4EF5-AA44-94B2-CD7FCB4CC25E}</author>
@@ -98,7 +104,35 @@
 ↳ Note that the FFN is essentially a multi layer perceptron.</t>
       </text>
     </comment>
-    <comment ref="P18" authorId="5" shapeId="0" xr:uid="{429757FA-6499-364E-B686-18036D7CE6FE}">
+    <comment ref="K18" authorId="5" shapeId="0" xr:uid="{AA066A56-BF0B-F849-BBFF-96990A89DB97}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</t>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="6" shapeId="0" xr:uid="{575F9D59-2E1D-4149-827B-FAE2EC396ABC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</t>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="7" shapeId="0" xr:uid="{429757FA-6499-364E-B686-18036D7CE6FE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +141,63 @@
 ↳ Negative values are set to zeros by ReLU.</t>
       </text>
     </comment>
-    <comment ref="C23" authorId="6" shapeId="0" xr:uid="{0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}">
+    <comment ref="J19" authorId="8" shapeId="0" xr:uid="{59D33A8F-C3A4-9D43-9107-14E53F1932A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</t>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="9" shapeId="0" xr:uid="{A0D0D70F-412C-D24A-B88A-012888FB50CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</t>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="10" shapeId="0" xr:uid="{5AD61CD2-8013-1648-843A-496DE8D97AF1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</t>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="11" shapeId="0" xr:uid="{C294AE2C-7260-A246-9D1A-71AC1A72DEC8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</t>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="12" shapeId="0" xr:uid="{0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +205,7 @@
     The FFN layer combines features across dimensions (vertically).</t>
       </text>
     </comment>
-    <comment ref="P23" authorId="7" shapeId="0" xr:uid="{3389D202-7469-3447-B71D-7039948E7C2B}">
+    <comment ref="P23" authorId="13" shapeId="0" xr:uid="{3389D202-7469-3447-B71D-7039948E7C2B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +217,7 @@
 ↳ Note that the next block would have a completely separate set of parameters.</t>
       </text>
     </comment>
-    <comment ref="V23" authorId="8" shapeId="0" xr:uid="{B92B3D14-4EF5-AA44-94B2-CD7FCB4CC25E}">
+    <comment ref="V23" authorId="14" shapeId="0" xr:uid="{B92B3D14-4EF5-AA44-94B2-CD7FCB4CC25E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -790,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,35 +965,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,6 +996,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1391,9 +1480,63 @@
 ↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
 ↳ Note that the FFN is essentially a multi layer perceptron.</text>
   </threadedComment>
+  <threadedComment ref="K18" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{AA066A56-BF0B-F849-BBFF-96990A89DB97}">
+    <text># FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</text>
+  </threadedComment>
+  <threadedComment ref="L18" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{575F9D59-2E1D-4149-827B-FAE2EC396ABC}">
+    <text># FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</text>
+  </threadedComment>
   <threadedComment ref="P18" dT="2024-09-22T12:04:51.85" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{429757FA-6499-364E-B686-18036D7CE6FE}">
     <text># ReLU
 ↳ Negative values are set to zeros by ReLU.</text>
+  </threadedComment>
+  <threadedComment ref="J19" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{59D33A8F-C3A4-9D43-9107-14E53F1932A9}">
+    <text># FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</text>
+  </threadedComment>
+  <threadedComment ref="K19" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{A0D0D70F-412C-D24A-B88A-012888FB50CA}">
+    <text># FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</text>
+  </threadedComment>
+  <threadedComment ref="J20" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{5AD61CD2-8013-1648-843A-496DE8D97AF1}">
+    <text># FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</text>
+  </threadedComment>
+  <threadedComment ref="K20" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{C294AE2C-7260-A246-9D1A-71AC1A72DEC8}">
+    <text># FFN: First Layer
+↳ Feed all 5 attention weighted features into the first layer.
+↳ Multiply these features with the weights and biases.
+↳ The effect is to combine features across feature dimensions (vertically).
+↳ The dimensionality of each feature is decreased from 4 to 3.
+↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
+↳ Note that the FFN is essentially a multi layer perceptron.</text>
   </threadedComment>
   <threadedComment ref="C23" dT="2024-09-22T23:51:43.78" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}">
     <text>The FFN layer combines features across dimensions (vertically).</text>
@@ -1420,7 +1563,7 @@
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1432,45 +1575,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
     </row>
     <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1492,11 +1635,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1605,21 +1748,21 @@
       <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="10"/>
     </row>
@@ -1650,17 +1793,17 @@
       <c r="N7" s="8">
         <v>0</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="10"/>
     </row>
@@ -1848,37 +1991,37 @@
       <c r="G12" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="43">
+      <c r="I12" s="46"/>
+      <c r="J12" s="34">
         <f t="array" ref="J12">MMULT($C12:$G12,J$6:J$10)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="34">
         <f t="array" ref="K12">MMULT($C12:$G12,K$6:K$10)</f>
         <v>2</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="34">
         <f t="array" ref="L12">MMULT($C12:$G12,L$6:L$10)</f>
         <v>2</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="34">
         <f t="array" ref="M12">MMULT($C12:$G12,M$6:M$10)</f>
         <v>1</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="34">
         <f t="array" ref="N12">MMULT($C12:$G12,N$6:N$10)</f>
         <v>2</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1905,35 +2048,35 @@
       <c r="G13" s="15">
         <v>-1</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="43">
+      <c r="I13" s="46"/>
+      <c r="J13" s="34">
         <f t="array" ref="J13">MMULT($C13:$G13,J$6:J$10)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="34">
         <f t="array" ref="K13">MMULT($C13:$G13,K$6:K$10)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="34">
         <f t="array" ref="L13">MMULT($C13:$G13,L$6:L$10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="34">
         <f t="array" ref="M13">MMULT($C13:$G13,M$6:M$10)</f>
         <v>2</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="34">
         <f t="array" ref="N13">MMULT($C13:$G13,N$6:N$10)</f>
         <v>1</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1960,27 +2103,27 @@
       <c r="G14" s="15">
         <v>2</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="43">
+      <c r="I14" s="46"/>
+      <c r="J14" s="34">
         <f t="array" ref="J14">MMULT($C14:$G14,J$6:J$10)</f>
         <v>2</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="34">
         <f t="array" ref="K14">MMULT($C14:$G14,K$6:K$10)</f>
         <v>6</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="34">
         <f t="array" ref="L14">MMULT($C14:$G14,L$6:L$10)</f>
         <v>4</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="34">
         <f t="array" ref="M14">MMULT($C14:$G14,M$6:M$10)</f>
         <v>3</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="34">
         <f t="array" ref="N14">MMULT($C14:$G14,N$6:N$10)</f>
         <v>5</v>
       </c>
@@ -2015,27 +2158,27 @@
       <c r="G15" s="15">
         <v>1</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="43">
+      <c r="I15" s="46"/>
+      <c r="J15" s="34">
         <f t="array" ref="J15">MMULT($C15:$G15,J$6:J$10)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="34">
         <f t="array" ref="K15">MMULT($C15:$G15,K$6:K$10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="34">
         <f t="array" ref="L15">MMULT($C15:$G15,L$6:L$10)</f>
         <v>2</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="34">
         <f t="array" ref="M15">MMULT($C15:$G15,M$6:M$10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="34">
         <f t="array" ref="N15">MMULT($C15:$G15,N$6:N$10)</f>
         <v>1</v>
       </c>
@@ -2150,50 +2293,50 @@
       <c r="G18" s="22">
         <v>3</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="43">
+      <c r="I18" s="46"/>
+      <c r="J18" s="34">
         <f t="array" ref="J18">MMULT($C18:$G18,J$12:J$16)</f>
         <v>7</v>
       </c>
-      <c r="K18" s="43">
-        <f t="array" ref="K18">MMULT($C18:$G18,K$6:K$10)</f>
-        <v>5</v>
-      </c>
-      <c r="L18" s="43">
-        <f t="array" ref="L18">MMULT($C18:$G18,L$6:L$10)</f>
-        <v>5</v>
-      </c>
-      <c r="M18" s="43">
+      <c r="K18" s="34">
+        <f t="array" ref="K18">MMULT($C18:$G18,K$12:K$16)</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="34">
+        <f t="array" ref="L18">MMULT($C18:$G18,L$12:L$16)</f>
+        <v>11</v>
+      </c>
+      <c r="M18" s="34">
         <f t="array" ref="M18">MMULT($C18:$G18,M$6:M$10)</f>
         <v>3</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="34">
         <f t="array" ref="N18">MMULT($C18:$G18,N$6:N$10)</f>
         <v>4</v>
       </c>
       <c r="O18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="34">
         <f>IF(J18&gt;0, J18, 0)</f>
         <v>7</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="34">
         <f t="shared" ref="Q18:Q20" si="0">IF(K18&gt;0, K18, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="R18" s="43">
+        <v>13</v>
+      </c>
+      <c r="R18" s="34">
         <f t="shared" ref="R18:R20" si="1">IF(L18&gt;0, L18, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="S18" s="43">
+        <v>11</v>
+      </c>
+      <c r="S18" s="34">
         <f t="shared" ref="S18:S20" si="2">IF(M18&gt;0, M18, 0)</f>
         <v>3</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="34">
         <f t="shared" ref="T18:T20" si="3">IF(N18&gt;0, N18, 0)</f>
         <v>4</v>
       </c>
@@ -2222,50 +2365,50 @@
       <c r="G19" s="26">
         <v>4</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="43">
-        <f t="array" ref="J19">MMULT($C19:$G19,J$6:J$10)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="43">
-        <f t="array" ref="K19">MMULT($C19:$G19,K$6:K$10)</f>
-        <v>5</v>
-      </c>
-      <c r="L19" s="43">
+      <c r="I19" s="46"/>
+      <c r="J19" s="34">
+        <f t="array" ref="J19">MMULT($C19:$G19,J$12:J$16)</f>
+        <v>8</v>
+      </c>
+      <c r="K19" s="34">
+        <f t="array" ref="K19">MMULT($C19:$G19,K$12:K$16)</f>
+        <v>16</v>
+      </c>
+      <c r="L19" s="34">
         <f t="array" ref="L19">MMULT($C19:$G19,L$6:L$10)</f>
         <v>6</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="34">
         <f t="array" ref="M19">MMULT($C19:$G19,M$6:M$10)</f>
         <v>2</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="34">
         <f t="array" ref="N19">MMULT($C19:$G19,N$6:N$10)</f>
         <v>5</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="34">
         <f t="shared" ref="P19:P20" si="4">IF(J19&gt;0, J19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="43">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="34">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R19" s="43">
+        <v>16</v>
+      </c>
+      <c r="R19" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -2294,50 +2437,50 @@
       <c r="G20" s="29">
         <v>-1</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="43">
-        <f t="array" ref="J20">MMULT($C20:$G20,J$6:J$10)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="43">
-        <f t="array" ref="K20">MMULT($C20:$G20,K$6:K$10)</f>
+      <c r="I20" s="46"/>
+      <c r="J20" s="34">
+        <f t="array" ref="J20">MMULT($C20:$G20,J$12:J$16)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="43">
+      <c r="K20" s="34">
+        <f t="array" ref="K20">MMULT($C20:$G20,K$12:K$16)</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="34">
         <f t="array" ref="L20">MMULT($C20:$G20,L$6:L$10)</f>
         <v>-1</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="34">
         <f t="array" ref="M20">MMULT($C20:$G20,M$6:M$10)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="34">
         <f t="array" ref="N20">MMULT($C20:$G20,N$6:N$10)</f>
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="43">
+        <v>5</v>
+      </c>
+      <c r="R20" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2429,13 +2572,13 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2454,46 +2597,46 @@
       <c r="O23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="35">
         <f t="array" ref="P23">MMULT($K23:$N23,P$18:P$21)</f>
-        <v>6</v>
-      </c>
-      <c r="Q23" s="43">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="34">
         <f t="array" ref="Q23">MMULT($K23:$N23,Q$18:Q$21)</f>
-        <v>15</v>
-      </c>
-      <c r="R23" s="43">
+        <v>49</v>
+      </c>
+      <c r="R23" s="34">
         <f t="array" ref="R23">MMULT($K23:$N23,R$18:R$21)</f>
-        <v>16</v>
-      </c>
-      <c r="S23" s="43">
+        <v>22</v>
+      </c>
+      <c r="S23" s="34">
         <f t="array" ref="S23">MMULT($K23:$N23,S$18:S$21)</f>
         <v>7</v>
       </c>
-      <c r="T23" s="43">
+      <c r="T23" s="34">
         <f t="array" ref="T23">MMULT($K23:$N23,T$18:T$21)</f>
         <v>13</v>
       </c>
       <c r="U23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="43">
+      <c r="V23" s="34">
         <f>IF(P23&gt;0, P23, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="W23" s="43">
+        <v>23</v>
+      </c>
+      <c r="W23" s="34">
         <f t="shared" ref="W23:W26" si="5">IF(Q23&gt;0, Q23, 0)</f>
-        <v>15</v>
-      </c>
-      <c r="X23" s="43">
+        <v>49</v>
+      </c>
+      <c r="X23" s="34">
         <f t="shared" ref="X23:X26" si="6">IF(R23&gt;0, R23, 0)</f>
-        <v>16</v>
-      </c>
-      <c r="Y23" s="43">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="34">
         <f t="shared" ref="Y23:Y26" si="7">IF(S23&gt;0, S23, 0)</f>
         <v>7</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="34">
         <f t="shared" ref="Z23:Z26" si="8">IF(T23&gt;0, T23, 0)</f>
         <v>13</v>
       </c>
@@ -2501,11 +2644,11 @@
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2524,46 +2667,46 @@
       <c r="O24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="34">
         <f t="array" ref="P24">MMULT($K24:$N24,P$18:P$21)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="34">
         <f t="array" ref="Q24">MMULT($K24:$N24,Q$18:Q$21)</f>
-        <v>2</v>
-      </c>
-      <c r="R24" s="43">
+        <v>-6</v>
+      </c>
+      <c r="R24" s="34">
         <f t="array" ref="R24">MMULT($K24:$N24,R$18:R$21)</f>
-        <v>2</v>
-      </c>
-      <c r="S24" s="43">
+        <v>-4</v>
+      </c>
+      <c r="S24" s="34">
         <f t="array" ref="S24">MMULT($K24:$N24,S$18:S$21)</f>
         <v>4</v>
       </c>
-      <c r="T24" s="43">
+      <c r="T24" s="34">
         <f t="array" ref="T24">MMULT($K24:$N24,T$18:T$21)</f>
         <v>3</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="43">
+      <c r="V24" s="34">
         <f t="shared" ref="V24:V26" si="9">IF(P24&gt;0, P24, 0)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="43">
+      <c r="W24" s="34">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="X24" s="43">
+        <v>0</v>
+      </c>
+      <c r="X24" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Y24" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="34">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="Z24" s="43">
+      <c r="Z24" s="34">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -2571,11 +2714,11 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2594,46 +2737,46 @@
       <c r="O25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="34">
         <f t="array" ref="P25">MMULT($K25:$N25,P$18:P$21)</f>
-        <v>9</v>
-      </c>
-      <c r="Q25" s="43">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="34">
         <f t="array" ref="Q25">MMULT($K25:$N25,Q$18:Q$21)</f>
-        <v>13</v>
-      </c>
-      <c r="R25" s="43">
+        <v>36</v>
+      </c>
+      <c r="R25" s="34">
         <f t="array" ref="R25">MMULT($K25:$N25,R$18:R$21)</f>
-        <v>13</v>
-      </c>
-      <c r="S25" s="43">
+        <v>19</v>
+      </c>
+      <c r="S25" s="34">
         <f t="array" ref="S25">MMULT($K25:$N25,S$18:S$21)</f>
         <v>8</v>
       </c>
-      <c r="T25" s="43">
+      <c r="T25" s="34">
         <f t="array" ref="T25">MMULT($K25:$N25,T$18:T$21)</f>
         <v>11</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="34">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="W25" s="43">
+        <v>18</v>
+      </c>
+      <c r="W25" s="34">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="X25" s="43">
+        <v>36</v>
+      </c>
+      <c r="X25" s="34">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="Y25" s="43">
+        <v>19</v>
+      </c>
+      <c r="Y25" s="34">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="Z25" s="43">
+      <c r="Z25" s="34">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
@@ -2664,46 +2807,46 @@
       <c r="O26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="34">
         <f t="array" ref="P26">MMULT($K26:$N26,P$18:P$21)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q26" s="43">
+        <v>-2</v>
+      </c>
+      <c r="Q26" s="34">
         <f t="array" ref="Q26">MMULT($K26:$N26,Q$18:Q$21)</f>
-        <v>-2</v>
-      </c>
-      <c r="R26" s="43">
+        <v>-6</v>
+      </c>
+      <c r="R26" s="34">
         <f t="array" ref="R26">MMULT($K26:$N26,R$18:R$21)</f>
         <v>-1</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="34">
         <f t="array" ref="S26">MMULT($K26:$N26,S$18:S$21)</f>
         <v>-2</v>
       </c>
-      <c r="T26" s="43">
+      <c r="T26" s="34">
         <f t="array" ref="T26">MMULT($K26:$N26,T$18:T$21)</f>
         <v>-1</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V26" s="43">
+      <c r="V26" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W26" s="43">
+      <c r="W26" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X26" s="43">
+      <c r="X26" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="43">
+      <c r="Y26" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="43">
+      <c r="Z26" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2767,13 +2910,13 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="37" t="s">
+      <c r="V28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="1"/>
@@ -2802,36 +2945,36 @@
       <c r="Z29" s="31"/>
     </row>
     <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="32"/>
@@ -28101,7 +28244,7 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
   </mergeCells>
-  <conditionalFormatting sqref="J12:N15 J18:N20 P18:T20 P23:T26 V23:Z26">
+  <conditionalFormatting sqref="J12:N15 P18:T20 P23:T26 V23:Z26 J18:N20">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$U$2=TRUE</formula>
     </cfRule>
@@ -28119,7 +28262,7 @@
   <dimension ref="A1:AN1015"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28130,60 +28273,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="26" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
     </row>
     <row r="2" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -28214,14 +28357,14 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -28357,7 +28500,7 @@
       <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="41">
         <v>0</v>
       </c>
       <c r="P6" s="8">
@@ -28375,16 +28518,16 @@
       <c r="T6" s="8">
         <v>0</v>
       </c>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AM6" s="10"/>
@@ -28410,7 +28553,7 @@
       <c r="N7" s="8">
         <v>1</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="41">
         <v>0</v>
       </c>
       <c r="P7" s="8">
@@ -28428,14 +28571,14 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -28463,7 +28606,7 @@
       <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="41">
         <v>0</v>
       </c>
       <c r="N8" s="8">
@@ -28505,7 +28648,7 @@
       <c r="L9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="41">
         <v>0</v>
       </c>
       <c r="N9" s="8">
@@ -28547,13 +28690,13 @@
       <c r="L10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="41">
         <v>0</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="41">
         <v>0</v>
       </c>
       <c r="P10" s="8">
@@ -28597,7 +28740,7 @@
       <c r="O11" s="8">
         <v>0</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="41">
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -28828,52 +28971,52 @@
       <c r="J15" s="15">
         <v>1</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="43">
+      <c r="L15" s="46"/>
+      <c r="M15" s="34">
         <f t="array" ref="M15">MMULT($C15:$J15,M$6:M$13)</f>
         <v>2</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="34">
         <f t="array" ref="N15">MMULT($C15:$J15,N$6:N$13)</f>
         <v>2</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="34">
         <f t="array" ref="O15">MMULT($C15:$J15,O$6:O$13)</f>
         <v>2</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="34">
         <f t="array" ref="P15">MMULT($C15:$J15,P$6:P$13)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="34">
         <f t="array" ref="Q15">MMULT($C15:$J15,Q$6:Q$13)</f>
         <v>2</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="34">
         <f t="array" ref="R15">MMULT($C15:$J15,R$6:R$13)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="34">
         <f t="array" ref="S15">MMULT($C15:$J15,S$6:S$13)</f>
         <v>1</v>
       </c>
-      <c r="T15" s="43">
+      <c r="T15" s="34">
         <f t="array" ref="T15">MMULT($C15:$J15,T$6:T$13)</f>
         <v>1</v>
       </c>
-      <c r="U15" s="55" t="s">
+      <c r="U15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -28912,50 +29055,50 @@
       <c r="J16" s="15">
         <v>-1</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="43">
+      <c r="L16" s="46"/>
+      <c r="M16" s="34">
         <f t="array" ref="M16">MMULT($C16:$J16,M$6:M$13)</f>
         <v>1</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="34">
         <f t="array" ref="N16">MMULT($C16:$J16,N$6:N$13)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="34">
         <f t="array" ref="O16">MMULT($C16:$J16,O$6:O$13)</f>
         <v>1</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="34">
         <f t="array" ref="P16">MMULT($C16:$J16,P$6:P$13)</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="34">
         <f t="array" ref="Q16">MMULT($C16:$J16,Q$6:Q$13)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="34">
         <f t="array" ref="R16">MMULT($C16:$J16,R$6:R$13)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="34">
         <f t="array" ref="S16">MMULT($C16:$J16,S$6:S$13)</f>
         <v>-1</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="34">
         <f t="array" ref="T16">MMULT($C16:$J16,T$6:T$13)</f>
         <v>-1</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -28994,39 +29137,39 @@
       <c r="J17" s="15">
         <v>0</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="43">
+      <c r="L17" s="46"/>
+      <c r="M17" s="34">
         <f t="array" ref="M17">MMULT($C17:$J17,M$6:M$13)</f>
         <v>-1</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="34">
         <f t="array" ref="N17">MMULT($C17:$J17,N$6:N$13)</f>
         <v>-1</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="34">
         <f t="array" ref="O17">MMULT($C17:$J17,O$6:O$13)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="34">
         <f t="array" ref="P17">MMULT($C17:$J17,P$6:P$13)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="34">
         <f t="array" ref="Q17">MMULT($C17:$J17,Q$6:Q$13)</f>
         <v>1</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="34">
         <f t="array" ref="R17">MMULT($C17:$J17,R$6:R$13)</f>
         <v>1</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="34">
         <f t="array" ref="S17">MMULT($C17:$J17,S$6:S$13)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="34">
         <f t="array" ref="T17">MMULT($C17:$J17,T$6:T$13)</f>
         <v>0</v>
       </c>
@@ -29068,39 +29211,39 @@
       <c r="J18" s="15">
         <v>0</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="43">
+      <c r="L18" s="46"/>
+      <c r="M18" s="34">
         <f t="array" ref="M18">MMULT($C18:$J18,M$6:M$13)</f>
         <v>1</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="34">
         <f t="array" ref="N18">MMULT($C18:$J18,N$6:N$13)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="34">
         <f t="array" ref="O18">MMULT($C18:$J18,O$6:O$13)</f>
         <v>1</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="34">
         <f t="array" ref="P18">MMULT($C18:$J18,P$6:P$13)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="34">
         <f t="array" ref="Q18">MMULT($C18:$J18,Q$6:Q$13)</f>
         <v>-1</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="34">
         <f t="array" ref="R18">MMULT($C18:$J18,R$6:R$13)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="34">
         <f t="array" ref="S18">MMULT($C18:$J18,S$6:S$13)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="34">
         <f t="array" ref="T18">MMULT($C18:$J18,T$6:T$13)</f>
         <v>0</v>
       </c>
@@ -29142,39 +29285,39 @@
       <c r="J19" s="15">
         <v>2</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="43">
+      <c r="L19" s="46"/>
+      <c r="M19" s="34">
         <f t="array" ref="M19">MMULT($C19:$J19,M$6:M$13)</f>
         <v>2</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="34">
         <f t="array" ref="N19">MMULT($C19:$J19,N$6:N$13)</f>
         <v>2</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="34">
         <f t="array" ref="O19">MMULT($C19:$J19,O$6:O$13)</f>
         <v>2</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="34">
         <f t="array" ref="P19">MMULT($C19:$J19,P$6:P$13)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="34">
         <f t="array" ref="Q19">MMULT($C19:$J19,Q$6:Q$13)</f>
         <v>3</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="34">
         <f t="array" ref="R19">MMULT($C19:$J19,R$6:R$13)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="34">
         <f t="array" ref="S19">MMULT($C19:$J19,S$6:S$13)</f>
         <v>2</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="34">
         <f t="array" ref="T19">MMULT($C19:$J19,T$6:T$13)</f>
         <v>2</v>
       </c>
@@ -29224,39 +29367,39 @@
       <c r="J20" s="15">
         <v>1</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="43">
+      <c r="L20" s="46"/>
+      <c r="M20" s="34">
         <f t="array" ref="M20">MMULT($C20:$J20,M$6:M$13)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="34">
         <f t="array" ref="N20">MMULT($C20:$J20,N$6:N$13)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="34">
         <f t="array" ref="O20">MMULT($C20:$J20,O$6:O$13)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="34">
         <f t="array" ref="P20">MMULT($C20:$J20,P$6:P$13)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="34">
         <f t="array" ref="Q20">MMULT($C20:$J20,Q$6:Q$13)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="34">
         <f t="array" ref="R20">MMULT($C20:$J20,R$6:R$13)</f>
         <v>-1</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="34">
         <f t="array" ref="S20">MMULT($C20:$J20,S$6:S$13)</f>
         <v>1</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="34">
         <f t="array" ref="T20">MMULT($C20:$J20,T$6:T$13)</f>
         <v>1</v>
       </c>
@@ -29408,86 +29551,86 @@
       <c r="F23" s="21">
         <v>1</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="36">
         <v>0</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="36">
         <v>0</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="36">
         <v>0</v>
       </c>
       <c r="J23" s="22">
         <v>3</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="43">
+      <c r="L23" s="46"/>
+      <c r="M23" s="34">
         <f t="array" ref="M23">MMULT($D23:$J23,M$15:M$21)</f>
         <v>4</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="34">
         <f t="array" ref="N23">MMULT($D23:$J23,N$15:N$21)</f>
         <v>4</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="34">
         <f t="array" ref="O23">MMULT($D23:$J23,O$15:O$21)</f>
         <v>5</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="34">
         <f t="array" ref="P23">MMULT($D23:$J23,P$15:P$21)</f>
         <v>5</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="34">
         <f t="array" ref="Q23">MMULT($D23:$J23,Q$15:Q$21)</f>
         <v>6</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="34">
         <f t="array" ref="R23">MMULT($D23:$J23,R$15:R$21)</f>
         <v>4</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="34">
         <f t="array" ref="S23">MMULT($D23:$J23,S$15:S$21)</f>
         <v>4</v>
       </c>
-      <c r="T23" s="43">
+      <c r="T23" s="34">
         <f t="array" ref="T23">MMULT($D23:$J23,T$15:T$21)</f>
         <v>4</v>
       </c>
       <c r="U23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="43">
+      <c r="V23" s="34">
         <f>IF(M23&gt;0, M23, 0)</f>
         <v>4</v>
       </c>
-      <c r="W23" s="43">
+      <c r="W23" s="34">
         <f t="shared" ref="W23:W32" si="0">IF(N23&gt;0, N23, 0)</f>
         <v>4</v>
       </c>
-      <c r="X23" s="43">
+      <c r="X23" s="34">
         <f t="shared" ref="X23:X32" si="1">IF(O23&gt;0, O23, 0)</f>
         <v>5</v>
       </c>
-      <c r="Y23" s="43">
+      <c r="Y23" s="34">
         <f t="shared" ref="Y23:Y32" si="2">IF(P23&gt;0, P23, 0)</f>
         <v>5</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="34">
         <f t="shared" ref="Z23:Z32" si="3">IF(Q23&gt;0, Q23, 0)</f>
         <v>6</v>
       </c>
-      <c r="AA23" s="43">
+      <c r="AA23" s="34">
         <f t="shared" ref="AA23:AA32" si="4">IF(R23&gt;0, R23, 0)</f>
         <v>4</v>
       </c>
-      <c r="AB23" s="43">
+      <c r="AB23" s="34">
         <f t="shared" ref="AB23:AB32" si="5">IF(S23&gt;0, S23, 0)</f>
         <v>4</v>
       </c>
-      <c r="AC23" s="43">
+      <c r="AC23" s="34">
         <f t="shared" ref="AC23:AC32" si="6">IF(T23&gt;0, T23, 0)</f>
         <v>4</v>
       </c>
@@ -29505,7 +29648,7 @@
     <row r="24" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="52">
+      <c r="D24" s="42">
         <v>0</v>
       </c>
       <c r="E24" s="14">
@@ -29523,77 +29666,77 @@
       <c r="I24" s="14">
         <v>-1</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="43">
         <v>0</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="43">
+      <c r="L24" s="46"/>
+      <c r="M24" s="34">
         <f t="array" ref="M24">MMULT($D24:$J24,M$15:M$21)</f>
         <v>-1</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="34">
         <f t="array" ref="N24">MMULT($D24:$J24,N$15:N$21)</f>
         <v>-1</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="34">
         <f t="array" ref="O24">MMULT($D24:$J24,O$15:O$21)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="34">
         <f t="array" ref="P24">MMULT($D24:$J24,P$15:P$21)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="34">
         <f t="array" ref="Q24">MMULT($D24:$J24,Q$15:Q$21)</f>
         <v>-1</v>
       </c>
-      <c r="R24" s="43">
+      <c r="R24" s="34">
         <f t="array" ref="R24">MMULT($D24:$J24,R$15:R$21)</f>
         <v>1</v>
       </c>
-      <c r="S24" s="43">
+      <c r="S24" s="34">
         <f t="array" ref="S24">MMULT($D24:$J24,S$15:S$21)</f>
         <v>-1</v>
       </c>
-      <c r="T24" s="43">
+      <c r="T24" s="34">
         <f t="array" ref="T24">MMULT($D24:$J24,T$15:T$21)</f>
         <v>-1</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V24" s="43">
+      <c r="V24" s="34">
         <f t="shared" ref="V24:V32" si="7">IF(M24&gt;0, M24, 0)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="43">
+      <c r="W24" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X24" s="43">
+      <c r="X24" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="43">
+      <c r="Y24" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="43">
+      <c r="Z24" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="43">
+      <c r="AA24" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB24" s="43">
+      <c r="AB24" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="43">
+      <c r="AC24" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -29611,7 +29754,7 @@
     <row r="25" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="52">
+      <c r="D25" s="42">
         <v>0</v>
       </c>
       <c r="E25" s="14">
@@ -29629,77 +29772,77 @@
       <c r="I25" s="14">
         <v>0</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="43">
         <v>1</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="43">
+      <c r="L25" s="46"/>
+      <c r="M25" s="34">
         <f t="array" ref="M25">MMULT($D25:$J25,M$15:M$21)</f>
         <v>-2</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="34">
         <f t="array" ref="N25">MMULT($D25:$J25,N$15:N$21)</f>
         <v>-2</v>
       </c>
-      <c r="O25" s="43">
+      <c r="O25" s="34">
         <f t="array" ref="O25">MMULT($D25:$J25,O$15:O$21)</f>
         <v>-1</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="34">
         <f t="array" ref="P25">MMULT($D25:$J25,P$15:P$21)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="34">
         <f t="array" ref="Q25">MMULT($D25:$J25,Q$15:Q$21)</f>
         <v>-1</v>
       </c>
-      <c r="R25" s="43">
+      <c r="R25" s="34">
         <f t="array" ref="R25">MMULT($D25:$J25,R$15:R$21)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="34">
         <f t="array" ref="S25">MMULT($D25:$J25,S$15:S$21)</f>
         <v>-1</v>
       </c>
-      <c r="T25" s="43">
+      <c r="T25" s="34">
         <f t="array" ref="T25">MMULT($D25:$J25,T$15:T$21)</f>
         <v>-1</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="43">
+      <c r="W25" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X25" s="43">
+      <c r="X25" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="43">
+      <c r="Y25" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="43">
+      <c r="Z25" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="43">
+      <c r="AA25" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="43">
+      <c r="AB25" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="43">
+      <c r="AC25" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -29717,7 +29860,7 @@
     <row r="26" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="52">
+      <c r="D26" s="42">
         <v>0</v>
       </c>
       <c r="E26" s="14">
@@ -29735,77 +29878,77 @@
       <c r="I26" s="14">
         <v>0</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="43">
         <v>0</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="43">
+      <c r="L26" s="46"/>
+      <c r="M26" s="34">
         <f t="array" ref="M26">MMULT($D26:$J26,M$15:M$21)</f>
         <v>2</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="34">
         <f t="array" ref="N26">MMULT($D26:$J26,N$15:N$21)</f>
         <v>2</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="34">
         <f t="array" ref="O26">MMULT($D26:$J26,O$15:O$21)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="34">
         <f t="array" ref="P26">MMULT($D26:$J26,P$15:P$21)</f>
         <v>-2</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="34">
         <f t="array" ref="Q26">MMULT($D26:$J26,Q$15:Q$21)</f>
         <v>-2</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="34">
         <f t="array" ref="R26">MMULT($D26:$J26,R$15:R$21)</f>
         <v>-2</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="34">
         <f t="array" ref="S26">MMULT($D26:$J26,S$15:S$21)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="43">
+      <c r="T26" s="34">
         <f t="array" ref="T26">MMULT($D26:$J26,T$15:T$21)</f>
         <v>0</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V26" s="43">
+      <c r="V26" s="34">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="W26" s="43">
+      <c r="W26" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X26" s="43">
+      <c r="X26" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="43">
+      <c r="Y26" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="43">
+      <c r="Z26" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="43">
+      <c r="AA26" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="43">
+      <c r="AB26" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="43">
+      <c r="AC26" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -29823,7 +29966,7 @@
     <row r="27" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="52">
+      <c r="D27" s="42">
         <v>-1</v>
       </c>
       <c r="E27" s="14">
@@ -29841,77 +29984,77 @@
       <c r="I27" s="14">
         <v>0</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="43">
         <v>1</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="43">
+      <c r="L27" s="46"/>
+      <c r="M27" s="34">
         <f t="array" ref="M27">MMULT($D27:$J27,M$15:M$21)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="34">
         <f t="array" ref="N27">MMULT($D27:$J27,N$15:N$21)</f>
         <v>-1</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="34">
         <f t="array" ref="O27">MMULT($D27:$J27,O$15:O$21)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="34">
         <f t="array" ref="P27">MMULT($D27:$J27,P$15:P$21)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="34">
         <f t="array" ref="Q27">MMULT($D27:$J27,Q$15:Q$21)</f>
         <v>-2</v>
       </c>
-      <c r="R27" s="43">
+      <c r="R27" s="34">
         <f t="array" ref="R27">MMULT($D27:$J27,R$15:R$21)</f>
         <v>1</v>
       </c>
-      <c r="S27" s="43">
+      <c r="S27" s="34">
         <f t="array" ref="S27">MMULT($D27:$J27,S$15:S$21)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="43">
+      <c r="T27" s="34">
         <f t="array" ref="T27">MMULT($D27:$J27,T$15:T$21)</f>
         <v>0</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V27" s="43">
-        <f t="shared" ref="V27:AC28" si="8">IF(M27&gt;0, M27, 0)</f>
+      <c r="V27" s="34">
+        <f t="shared" ref="V27:V28" si="8">IF(M27&gt;0, M27, 0)</f>
         <v>0</v>
       </c>
-      <c r="W27" s="43">
+      <c r="W27" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X27" s="43">
+      <c r="X27" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="43">
+      <c r="Y27" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="43">
+      <c r="Z27" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="43">
+      <c r="AA27" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB27" s="43">
+      <c r="AB27" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="43">
+      <c r="AC27" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -29929,7 +30072,7 @@
     <row r="28" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="52">
+      <c r="D28" s="42">
         <v>0</v>
       </c>
       <c r="E28" s="14">
@@ -29947,77 +30090,77 @@
       <c r="I28" s="14">
         <v>0</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="43">
         <v>0</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="43">
+      <c r="L28" s="46"/>
+      <c r="M28" s="34">
         <f t="array" ref="M28">MMULT($D28:$J28,M$15:M$21)</f>
         <v>4</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="34">
         <f t="array" ref="N28">MMULT($D28:$J28,N$15:N$21)</f>
         <v>2</v>
       </c>
-      <c r="O28" s="43">
+      <c r="O28" s="34">
         <f t="array" ref="O28">MMULT($D28:$J28,O$15:O$21)</f>
         <v>4</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="34">
         <f t="array" ref="P28">MMULT($D28:$J28,P$15:P$21)</f>
         <v>6</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="34">
         <f t="array" ref="Q28">MMULT($D28:$J28,Q$15:Q$21)</f>
         <v>5</v>
       </c>
-      <c r="R28" s="43">
+      <c r="R28" s="34">
         <f t="array" ref="R28">MMULT($D28:$J28,R$15:R$21)</f>
         <v>2</v>
       </c>
-      <c r="S28" s="43">
+      <c r="S28" s="34">
         <f t="array" ref="S28">MMULT($D28:$J28,S$15:S$21)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="43">
+      <c r="T28" s="34">
         <f t="array" ref="T28">MMULT($D28:$J28,T$15:T$21)</f>
         <v>0</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="34">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="W28" s="43">
+      <c r="W28" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X28" s="43">
+      <c r="X28" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Y28" s="43">
+      <c r="Y28" s="34">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Z28" s="43">
+      <c r="Z28" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AA28" s="43">
+      <c r="AA28" s="34">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AB28" s="43">
+      <c r="AB28" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="43">
+      <c r="AC28" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -30035,7 +30178,7 @@
     <row r="29" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="52">
+      <c r="D29" s="42">
         <v>0</v>
       </c>
       <c r="E29" s="14">
@@ -30053,77 +30196,77 @@
       <c r="I29" s="14">
         <v>1</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="43">
         <v>2</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="43">
+      <c r="L29" s="46"/>
+      <c r="M29" s="34">
         <f t="array" ref="M29">MMULT($D29:$J29,M$15:M$21)</f>
         <v>5</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="34">
         <f t="array" ref="N29">MMULT($D29:$J29,N$15:N$21)</f>
         <v>3</v>
       </c>
-      <c r="O29" s="43">
+      <c r="O29" s="34">
         <f t="array" ref="O29">MMULT($D29:$J29,O$15:O$21)</f>
         <v>4</v>
       </c>
-      <c r="P29" s="43">
+      <c r="P29" s="34">
         <f t="array" ref="P29">MMULT($D29:$J29,P$15:P$21)</f>
         <v>5</v>
       </c>
-      <c r="Q29" s="43">
+      <c r="Q29" s="34">
         <f t="array" ref="Q29">MMULT($D29:$J29,Q$15:Q$21)</f>
         <v>3</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="34">
         <f t="array" ref="R29">MMULT($D29:$J29,R$15:R$21)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="43">
+      <c r="S29" s="34">
         <f t="array" ref="S29">MMULT($D29:$J29,S$15:S$21)</f>
         <v>2</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="34">
         <f t="array" ref="T29">MMULT($D29:$J29,T$15:T$21)</f>
         <v>2</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V29" s="43">
+      <c r="V29" s="34">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="W29" s="43">
+      <c r="W29" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="X29" s="43">
+      <c r="X29" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Y29" s="43">
+      <c r="Y29" s="34">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Z29" s="43">
+      <c r="Z29" s="34">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AA29" s="43">
+      <c r="AA29" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB29" s="43">
+      <c r="AB29" s="34">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AC29" s="43">
+      <c r="AC29" s="34">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -30141,7 +30284,7 @@
     <row r="30" spans="2:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="52">
+      <c r="D30" s="42">
         <v>0</v>
       </c>
       <c r="E30" s="14">
@@ -30159,77 +30302,77 @@
       <c r="I30" s="14">
         <v>0</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="43">
         <v>1</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="43">
+      <c r="L30" s="46"/>
+      <c r="M30" s="34">
         <f t="array" ref="M30">MMULT($D30:$J30,M$15:M$21)</f>
         <v>2</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="34">
         <f t="array" ref="N30">MMULT($D30:$J30,N$15:N$21)</f>
         <v>1</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="34">
         <f t="array" ref="O30">MMULT($D30:$J30,O$15:O$21)</f>
         <v>2</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="34">
         <f t="array" ref="P30">MMULT($D30:$J30,P$15:P$21)</f>
         <v>2</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="34">
         <f t="array" ref="Q30">MMULT($D30:$J30,Q$15:Q$21)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="34">
         <f t="array" ref="R30">MMULT($D30:$J30,R$15:R$21)</f>
         <v>1</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="34">
         <f t="array" ref="S30">MMULT($D30:$J30,S$15:S$21)</f>
         <v>1</v>
       </c>
-      <c r="T30" s="43">
+      <c r="T30" s="34">
         <f t="array" ref="T30">MMULT($D30:$J30,T$15:T$21)</f>
         <v>1</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V30" s="43">
+      <c r="V30" s="34">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="W30" s="43">
+      <c r="W30" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X30" s="43">
+      <c r="X30" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Y30" s="43">
+      <c r="Y30" s="34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z30" s="43">
+      <c r="Z30" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="43">
+      <c r="AA30" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB30" s="43">
+      <c r="AB30" s="34">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC30" s="43">
+      <c r="AC30" s="34">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -30256,86 +30399,86 @@
       <c r="F31" s="25">
         <v>1</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="37">
         <v>0</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="37">
         <v>0</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="37">
         <v>0</v>
       </c>
       <c r="J31" s="26">
         <v>-1</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="43">
+      <c r="L31" s="46"/>
+      <c r="M31" s="34">
         <f t="array" ref="M31">MMULT($D31:$J31,M$15:M$21)</f>
         <v>-1</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="34">
         <f t="array" ref="N31">MMULT($D31:$J31,N$15:N$21)</f>
         <v>-2</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="34">
         <f t="array" ref="O31">MMULT($D31:$J31,O$15:O$21)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="34">
         <f t="array" ref="P31">MMULT($D31:$J31,P$15:P$21)</f>
         <v>2</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="34">
         <f t="array" ref="Q31">MMULT($D31:$J31,Q$15:Q$21)</f>
         <v>1</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="34">
         <f t="array" ref="R31">MMULT($D31:$J31,R$15:R$21)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="34">
         <f t="array" ref="S31">MMULT($D31:$J31,S$15:S$21)</f>
         <v>-2</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="34">
         <f t="array" ref="T31">MMULT($D31:$J31,T$15:T$21)</f>
         <v>-2</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V31" s="43">
+      <c r="V31" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W31" s="43">
+      <c r="W31" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X31" s="43">
+      <c r="X31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="43">
+      <c r="Y31" s="34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z31" s="43">
+      <c r="Z31" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AA31" s="43">
+      <c r="AA31" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="43">
+      <c r="AB31" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="43">
+      <c r="AC31" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -30362,86 +30505,86 @@
       <c r="F32" s="28">
         <v>1</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="38">
         <v>0</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="38">
         <v>0</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="38">
         <v>0</v>
       </c>
       <c r="J32" s="29">
         <v>0</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="43">
+      <c r="L32" s="46"/>
+      <c r="M32" s="34">
         <f t="array" ref="M32">MMULT($D32:$J32,M$15:M$21)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="34">
         <f t="array" ref="N32">MMULT($D32:$J32,N$15:N$21)</f>
         <v>1</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="34">
         <f t="array" ref="O32">MMULT($D32:$J32,O$15:O$21)</f>
         <v>1</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="34">
         <f t="array" ref="P32">MMULT($D32:$J32,P$15:P$21)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="43">
+      <c r="Q32" s="34">
         <f t="array" ref="Q32">MMULT($D32:$J32,Q$15:Q$21)</f>
         <v>2</v>
       </c>
-      <c r="R32" s="43">
+      <c r="R32" s="34">
         <f t="array" ref="R32">MMULT($D32:$J32,R$15:R$21)</f>
         <v>1</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="34">
         <f t="array" ref="S32">MMULT($D32:$J32,S$15:S$21)</f>
         <v>2</v>
       </c>
-      <c r="T32" s="43">
+      <c r="T32" s="34">
         <f t="array" ref="T32">MMULT($D32:$J32,T$15:T$21)</f>
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V32" s="43">
+      <c r="V32" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="43">
+      <c r="W32" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X32" s="43">
+      <c r="X32" s="34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y32" s="43">
+      <c r="Y32" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="43">
+      <c r="Z32" s="34">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA32" s="43">
+      <c r="AA32" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB32" s="43">
+      <c r="AB32" s="34">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AC32" s="43">
+      <c r="AC32" s="34">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -30575,25 +30718,25 @@
       <c r="J35" s="20">
         <v>1</v>
       </c>
-      <c r="K35" s="49">
+      <c r="K35" s="39">
         <v>0</v>
       </c>
-      <c r="L35" s="49">
+      <c r="L35" s="39">
         <v>0</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="39">
         <v>0</v>
       </c>
-      <c r="N35" s="49">
+      <c r="N35" s="39">
         <v>1</v>
       </c>
-      <c r="O35" s="49">
+      <c r="O35" s="39">
         <v>0</v>
       </c>
-      <c r="P35" s="49">
+      <c r="P35" s="39">
         <v>0</v>
       </c>
-      <c r="Q35" s="49">
+      <c r="Q35" s="39">
         <v>0</v>
       </c>
       <c r="R35" s="21">
@@ -30608,70 +30751,70 @@
       <c r="U35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="43">
+      <c r="V35" s="34">
         <f t="array" ref="V35">MMULT($J35:$T35,V$23:V$33)</f>
         <v>3</v>
       </c>
-      <c r="W35" s="43">
+      <c r="W35" s="34">
         <f t="array" ref="W35">MMULT($J35:$T35,W$23:W$33)</f>
         <v>4</v>
       </c>
-      <c r="X35" s="43">
+      <c r="X35" s="34">
         <f t="array" ref="X35">MMULT($J35:$T35,X$23:X$33)</f>
         <v>5</v>
       </c>
-      <c r="Y35" s="43">
+      <c r="Y35" s="34">
         <f t="array" ref="Y35">MMULT($J35:$T35,Y$23:Y$33)</f>
         <v>5</v>
       </c>
-      <c r="Z35" s="43">
+      <c r="Z35" s="34">
         <f t="array" ref="Z35">MMULT($J35:$T35,Z$23:Z$33)</f>
         <v>7</v>
       </c>
-      <c r="AA35" s="43">
+      <c r="AA35" s="34">
         <f t="array" ref="AA35">MMULT($J35:$T35,AA$23:AA$33)</f>
         <v>5</v>
       </c>
-      <c r="AB35" s="43">
+      <c r="AB35" s="34">
         <f t="array" ref="AB35">MMULT($J35:$T35,AB$23:AB$33)</f>
         <v>5</v>
       </c>
-      <c r="AC35" s="43">
+      <c r="AC35" s="34">
         <f t="array" ref="AC35">MMULT($J35:$T35,AC$23:AC$33)</f>
         <v>5</v>
       </c>
       <c r="AD35" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AE35" s="43">
+      <c r="AE35" s="34">
         <f>IF(V35&gt;0, V35, 0)</f>
         <v>3</v>
       </c>
-      <c r="AF35" s="43">
+      <c r="AF35" s="34">
         <f t="shared" ref="AF35:AF40" si="9">IF(Z35&gt;0, Z35, 0)</f>
         <v>7</v>
       </c>
-      <c r="AG35" s="43">
-        <f t="shared" ref="AG35:AI40" si="10">IF(AA35&gt;0, AA35, 0)</f>
+      <c r="AG35" s="34">
+        <f t="shared" ref="AG35:AG40" si="10">IF(AA35&gt;0, AA35, 0)</f>
         <v>5</v>
       </c>
-      <c r="AH35" s="43">
-        <f t="shared" ref="AH35:AI40" si="11">IF(AB35&gt;0, AB35, 0)</f>
+      <c r="AH35" s="34">
+        <f t="shared" ref="AH35:AH40" si="11">IF(AB35&gt;0, AB35, 0)</f>
         <v>5</v>
       </c>
-      <c r="AI35" s="43">
+      <c r="AI35" s="34">
         <f t="shared" ref="AI35:AI40" si="12">IF(AC35&gt;0, AC35, 0)</f>
         <v>5</v>
       </c>
-      <c r="AJ35" s="43">
+      <c r="AJ35" s="34">
         <f>IF(AA35&gt;0, AA35, 0)</f>
         <v>5</v>
       </c>
-      <c r="AK35" s="43">
+      <c r="AK35" s="34">
         <f>IF(AB35&gt;0, AB35, 0)</f>
         <v>5</v>
       </c>
-      <c r="AL35" s="43">
+      <c r="AL35" s="34">
         <f>IF(AC35&gt;0, AC35, 0)</f>
         <v>5</v>
       </c>
@@ -30679,28 +30822,28 @@
     </row>
     <row r="36" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
-      <c r="J36" s="52">
+      <c r="J36" s="42">
         <v>0</v>
       </c>
-      <c r="K36" s="54">
+      <c r="K36" s="44">
         <v>0</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="44">
         <v>0</v>
       </c>
-      <c r="M36" s="54">
+      <c r="M36" s="44">
         <v>0</v>
       </c>
-      <c r="N36" s="54">
+      <c r="N36" s="44">
         <v>0</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="44">
         <v>0</v>
       </c>
-      <c r="P36" s="54">
+      <c r="P36" s="44">
         <v>1</v>
       </c>
-      <c r="Q36" s="54">
+      <c r="Q36" s="44">
         <v>0</v>
       </c>
       <c r="R36" s="14">
@@ -30709,76 +30852,76 @@
       <c r="S36" s="14">
         <v>0</v>
       </c>
-      <c r="T36" s="53">
+      <c r="T36" s="43">
         <v>-2</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V36" s="43">
+      <c r="V36" s="34">
         <f t="array" ref="V36">MMULT($J36:$T36,V$23:V$33)</f>
         <v>3</v>
       </c>
-      <c r="W36" s="43">
+      <c r="W36" s="34">
         <f t="array" ref="W36">MMULT($J36:$T36,W$23:W$33)</f>
         <v>1</v>
       </c>
-      <c r="X36" s="43">
+      <c r="X36" s="34">
         <f t="array" ref="X36">MMULT($J36:$T36,X$23:X$33)</f>
         <v>2</v>
       </c>
-      <c r="Y36" s="43">
+      <c r="Y36" s="34">
         <f t="array" ref="Y36">MMULT($J36:$T36,Y$23:Y$33)</f>
         <v>3</v>
       </c>
-      <c r="Z36" s="43">
+      <c r="Z36" s="34">
         <f t="array" ref="Z36">MMULT($J36:$T36,Z$23:Z$33)</f>
         <v>1</v>
       </c>
-      <c r="AA36" s="43">
+      <c r="AA36" s="34">
         <f t="array" ref="AA36">MMULT($J36:$T36,AA$23:AA$33)</f>
         <v>-1</v>
       </c>
-      <c r="AB36" s="43">
+      <c r="AB36" s="34">
         <f t="array" ref="AB36">MMULT($J36:$T36,AB$23:AB$33)</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="43">
+      <c r="AC36" s="34">
         <f t="array" ref="AC36">MMULT($J36:$T36,AC$23:AC$33)</f>
         <v>0</v>
       </c>
       <c r="AD36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE36" s="43">
+      <c r="AE36" s="34">
         <f t="shared" ref="AE36:AE37" si="13">IF(V36&gt;0, V36, 0)</f>
         <v>3</v>
       </c>
-      <c r="AF36" s="43">
+      <c r="AF36" s="34">
         <f t="shared" ref="AF36:AF37" si="14">IF(W36&gt;0, W36, 0)</f>
         <v>1</v>
       </c>
-      <c r="AG36" s="43">
+      <c r="AG36" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH36" s="43">
+      <c r="AH36" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI36" s="43">
+      <c r="AI36" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ36" s="43">
+      <c r="AJ36" s="34">
         <f t="shared" ref="AJ36:AJ37" si="15">IF(X36&gt;0, X36, 0)</f>
         <v>2</v>
       </c>
-      <c r="AK36" s="43">
+      <c r="AK36" s="34">
         <f t="shared" ref="AK36:AK37" si="16">IF(Y36&gt;0, Y36, 0)</f>
         <v>3</v>
       </c>
-      <c r="AL36" s="43">
+      <c r="AL36" s="34">
         <f t="shared" ref="AL36:AL37" si="17">IF(Z36&gt;0, Z36, 0)</f>
         <v>1</v>
       </c>
@@ -30786,106 +30929,106 @@
     </row>
     <row r="37" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
-      <c r="J37" s="52">
+      <c r="J37" s="42">
         <v>0</v>
       </c>
-      <c r="K37" s="54">
+      <c r="K37" s="44">
         <v>0</v>
       </c>
-      <c r="L37" s="54">
+      <c r="L37" s="44">
         <v>0</v>
       </c>
-      <c r="M37" s="54">
+      <c r="M37" s="44">
         <v>1</v>
       </c>
-      <c r="N37" s="54">
+      <c r="N37" s="44">
         <v>0</v>
       </c>
-      <c r="O37" s="54">
+      <c r="O37" s="44">
         <v>1</v>
       </c>
-      <c r="P37" s="54">
+      <c r="P37" s="44">
         <v>0</v>
       </c>
-      <c r="Q37" s="54">
+      <c r="Q37" s="44">
         <v>0</v>
       </c>
-      <c r="R37" s="54">
+      <c r="R37" s="44">
         <v>-1</v>
       </c>
       <c r="S37" s="14">
         <v>0</v>
       </c>
-      <c r="T37" s="53">
+      <c r="T37" s="43">
         <v>0</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="43">
+      <c r="V37" s="34">
         <f t="array" ref="V37">MMULT($J37:$T37,V$23:V$33)</f>
         <v>6</v>
       </c>
-      <c r="W37" s="43">
+      <c r="W37" s="34">
         <f t="array" ref="W37">MMULT($J37:$T37,W$23:W$33)</f>
         <v>4</v>
       </c>
-      <c r="X37" s="43">
+      <c r="X37" s="34">
         <f t="array" ref="X37">MMULT($J37:$T37,X$23:X$33)</f>
         <v>4</v>
       </c>
-      <c r="Y37" s="43">
+      <c r="Y37" s="34">
         <f t="array" ref="Y37">MMULT($J37:$T37,Y$23:Y$33)</f>
         <v>4</v>
       </c>
-      <c r="Z37" s="43">
+      <c r="Z37" s="34">
         <f t="array" ref="Z37">MMULT($J37:$T37,Z$23:Z$33)</f>
         <v>4</v>
       </c>
-      <c r="AA37" s="43">
+      <c r="AA37" s="34">
         <f t="array" ref="AA37">MMULT($J37:$T37,AA$23:AA$33)</f>
         <v>2</v>
       </c>
-      <c r="AB37" s="43">
+      <c r="AB37" s="34">
         <f t="array" ref="AB37">MMULT($J37:$T37,AB$23:AB$33)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="43">
+      <c r="AC37" s="34">
         <f t="array" ref="AC37">MMULT($J37:$T37,AC$23:AC$33)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE37" s="43">
+      <c r="AE37" s="34">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="AF37" s="43">
+      <c r="AF37" s="34">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AG37" s="43">
+      <c r="AG37" s="34">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AH37" s="43">
+      <c r="AH37" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="43">
+      <c r="AI37" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ37" s="43">
+      <c r="AJ37" s="34">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="AK37" s="43">
+      <c r="AK37" s="34">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AL37" s="43">
+      <c r="AL37" s="34">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
@@ -30896,25 +31039,25 @@
       <c r="J38" s="24">
         <v>-1</v>
       </c>
-      <c r="K38" s="54">
+      <c r="K38" s="44">
         <v>0</v>
       </c>
-      <c r="L38" s="54">
+      <c r="L38" s="44">
         <v>0</v>
       </c>
-      <c r="M38" s="54">
+      <c r="M38" s="44">
         <v>0</v>
       </c>
-      <c r="N38" s="54">
+      <c r="N38" s="44">
         <v>0</v>
       </c>
-      <c r="O38" s="54">
+      <c r="O38" s="44">
         <v>1</v>
       </c>
-      <c r="P38" s="54">
+      <c r="P38" s="44">
         <v>0</v>
       </c>
-      <c r="Q38" s="54">
+      <c r="Q38" s="44">
         <v>1</v>
       </c>
       <c r="R38" s="25">
@@ -30929,71 +31072,71 @@
       <c r="U38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V38" s="43">
+      <c r="V38" s="34">
         <f t="array" ref="V38">MMULT($J38:$T38,V$23:V$33)</f>
         <v>9</v>
       </c>
-      <c r="W38" s="43">
+      <c r="W38" s="34">
         <f t="array" ref="W38">MMULT($J38:$T38,W$23:W$33)</f>
         <v>7</v>
       </c>
-      <c r="X38" s="43">
+      <c r="X38" s="34">
         <f t="array" ref="X38">MMULT($J38:$T38,X$23:X$33)</f>
         <v>9</v>
       </c>
-      <c r="Y38" s="43">
+      <c r="Y38" s="34">
         <f t="array" ref="Y38">MMULT($J38:$T38,Y$23:Y$33)</f>
         <v>10</v>
       </c>
-      <c r="Z38" s="43">
+      <c r="Z38" s="34">
         <f t="array" ref="Z38">MMULT($J38:$T38,Z$23:Z$33)</f>
         <v>8</v>
       </c>
-      <c r="AA38" s="43">
+      <c r="AA38" s="34">
         <f t="array" ref="AA38">MMULT($J38:$T38,AA$23:AA$33)</f>
         <v>7</v>
       </c>
-      <c r="AB38" s="43">
+      <c r="AB38" s="34">
         <f t="array" ref="AB38">MMULT($J38:$T38,AB$23:AB$33)</f>
         <v>6</v>
       </c>
-      <c r="AC38" s="43">
+      <c r="AC38" s="34">
         <f t="array" ref="AC38">MMULT($J38:$T38,AC$23:AC$33)</f>
         <v>6</v>
       </c>
       <c r="AD38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE38" s="43">
+      <c r="AE38" s="34">
         <f t="shared" ref="AE38:AE40" si="18">IF(V38&gt;0, V38, 0)</f>
         <v>9</v>
       </c>
-      <c r="AF38" s="43">
+      <c r="AF38" s="34">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="AG38" s="43">
+      <c r="AG38" s="34">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="AH38" s="43">
+      <c r="AH38" s="34">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="AI38" s="43">
+      <c r="AI38" s="34">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="AJ38" s="43">
-        <f>IF(AA38&gt;0, AA38, 0)</f>
+      <c r="AJ38" s="34">
+        <f t="shared" ref="AJ38:AL40" si="19">IF(AA38&gt;0, AA38, 0)</f>
         <v>7</v>
       </c>
-      <c r="AK38" s="43">
-        <f>IF(AB38&gt;0, AB38, 0)</f>
+      <c r="AK38" s="34">
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="AL38" s="43">
-        <f>IF(AC38&gt;0, AC38, 0)</f>
+      <c r="AL38" s="34">
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AM38" s="10"/>
@@ -31003,25 +31146,25 @@
       <c r="J39" s="24">
         <v>1</v>
       </c>
-      <c r="K39" s="54">
+      <c r="K39" s="44">
         <v>0</v>
       </c>
-      <c r="L39" s="54">
+      <c r="L39" s="44">
         <v>1</v>
       </c>
-      <c r="M39" s="54">
+      <c r="M39" s="44">
         <v>0</v>
       </c>
-      <c r="N39" s="54">
+      <c r="N39" s="44">
         <v>0</v>
       </c>
-      <c r="O39" s="54">
+      <c r="O39" s="44">
         <v>1</v>
       </c>
-      <c r="P39" s="54">
+      <c r="P39" s="44">
         <v>0</v>
       </c>
-      <c r="Q39" s="54">
+      <c r="Q39" s="44">
         <v>2</v>
       </c>
       <c r="R39" s="25">
@@ -31036,71 +31179,71 @@
       <c r="U39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="34">
         <f t="array" ref="V39">MMULT($J39:$T39,V$23:V$33)</f>
         <v>14</v>
       </c>
-      <c r="W39" s="43">
+      <c r="W39" s="34">
         <f t="array" ref="W39">MMULT($J39:$T39,W$23:W$33)</f>
         <v>10</v>
       </c>
-      <c r="X39" s="43">
+      <c r="X39" s="34">
         <f t="array" ref="X39">MMULT($J39:$T39,X$23:X$33)</f>
         <v>15</v>
       </c>
-      <c r="Y39" s="43">
+      <c r="Y39" s="34">
         <f t="array" ref="Y39">MMULT($J39:$T39,Y$23:Y$33)</f>
         <v>15</v>
       </c>
-      <c r="Z39" s="43">
+      <c r="Z39" s="34">
         <f t="array" ref="Z39">MMULT($J39:$T39,Z$23:Z$33)</f>
         <v>12</v>
       </c>
-      <c r="AA39" s="43">
+      <c r="AA39" s="34">
         <f t="array" ref="AA39">MMULT($J39:$T39,AA$23:AA$33)</f>
         <v>10</v>
       </c>
-      <c r="AB39" s="43">
+      <c r="AB39" s="34">
         <f t="array" ref="AB39">MMULT($J39:$T39,AB$23:AB$33)</f>
         <v>8</v>
       </c>
-      <c r="AC39" s="43">
+      <c r="AC39" s="34">
         <f t="array" ref="AC39">MMULT($J39:$T39,AC$23:AC$33)</f>
         <v>8</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE39" s="43">
+      <c r="AE39" s="34">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="AF39" s="43">
+      <c r="AF39" s="34">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="AG39" s="43">
+      <c r="AG39" s="34">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AH39" s="43">
+      <c r="AH39" s="34">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AI39" s="43">
+      <c r="AI39" s="34">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="AJ39" s="43">
-        <f>IF(AA39&gt;0, AA39, 0)</f>
+      <c r="AJ39" s="34">
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="AK39" s="43">
-        <f>IF(AB39&gt;0, AB39, 0)</f>
+      <c r="AK39" s="34">
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="AL39" s="43">
-        <f>IF(AC39&gt;0, AC39, 0)</f>
+      <c r="AL39" s="34">
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="AM39" s="10"/>
@@ -31117,25 +31260,25 @@
       <c r="J40" s="27">
         <v>0</v>
       </c>
-      <c r="K40" s="50">
+      <c r="K40" s="40">
         <v>0</v>
       </c>
-      <c r="L40" s="50">
+      <c r="L40" s="40">
         <v>0</v>
       </c>
-      <c r="M40" s="50">
+      <c r="M40" s="40">
         <v>1</v>
       </c>
-      <c r="N40" s="50">
+      <c r="N40" s="40">
         <v>0</v>
       </c>
-      <c r="O40" s="50">
+      <c r="O40" s="40">
         <v>0</v>
       </c>
-      <c r="P40" s="50">
+      <c r="P40" s="40">
         <v>1</v>
       </c>
-      <c r="Q40" s="50">
+      <c r="Q40" s="40">
         <v>0</v>
       </c>
       <c r="R40" s="28">
@@ -31150,71 +31293,71 @@
       <c r="U40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="34">
         <f t="array" ref="V40">MMULT($J40:$T40,V$23:V$33)</f>
         <v>6</v>
       </c>
-      <c r="W40" s="43">
+      <c r="W40" s="34">
         <f t="array" ref="W40">MMULT($J40:$T40,W$23:W$33)</f>
         <v>3</v>
       </c>
-      <c r="X40" s="43">
+      <c r="X40" s="34">
         <f t="array" ref="X40">MMULT($J40:$T40,X$23:X$33)</f>
         <v>2</v>
       </c>
-      <c r="Y40" s="43">
+      <c r="Y40" s="34">
         <f t="array" ref="Y40">MMULT($J40:$T40,Y$23:Y$33)</f>
         <v>6</v>
       </c>
-      <c r="Z40" s="43">
+      <c r="Z40" s="34">
         <f t="array" ref="Z40">MMULT($J40:$T40,Z$23:Z$33)</f>
         <v>1</v>
       </c>
-      <c r="AA40" s="43">
+      <c r="AA40" s="34">
         <f t="array" ref="AA40">MMULT($J40:$T40,AA$23:AA$33)</f>
         <v>-1</v>
       </c>
-      <c r="AB40" s="43">
+      <c r="AB40" s="34">
         <f t="array" ref="AB40">MMULT($J40:$T40,AB$23:AB$33)</f>
         <v>-1</v>
       </c>
-      <c r="AC40" s="43">
+      <c r="AC40" s="34">
         <f t="array" ref="AC40">MMULT($J40:$T40,AC$23:AC$33)</f>
         <v>-1</v>
       </c>
       <c r="AD40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="43">
+      <c r="AE40" s="34">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="AF40" s="43">
+      <c r="AF40" s="34">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AG40" s="43">
+      <c r="AG40" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="43">
+      <c r="AH40" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="43">
+      <c r="AI40" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="43">
-        <f>IF(AA40&gt;0, AA40, 0)</f>
+      <c r="AJ40" s="34">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="43">
-        <f>IF(AB40&gt;0, AB40, 0)</f>
+      <c r="AK40" s="34">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="43">
-        <f>IF(AC40&gt;0, AC40, 0)</f>
+      <c r="AL40" s="34">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AM40" s="10"/>
@@ -31304,16 +31447,16 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
-      <c r="AE42" s="37" t="s">
+      <c r="AE42" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="35"/>
-      <c r="AL42" s="35"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="46"/>
+      <c r="AL42" s="46"/>
     </row>
     <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="1"/>
@@ -31354,48 +31497,48 @@
       <c r="AL43" s="31"/>
     </row>
     <row r="44" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="48"/>
+      <c r="AH44" s="48"/>
+      <c r="AI44" s="48"/>
+      <c r="AJ44" s="48"/>
+      <c r="AK44" s="48"/>
+      <c r="AL44" s="48"/>
+      <c r="AM44" s="48"/>
+      <c r="AN44" s="48"/>
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="32"/>
@@ -31460,13 +31603,6 @@
     </row>
     <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="32"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -31496,14 +31632,6 @@
       <c r="AL47" s="1"/>
     </row>
     <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -31532,15 +31660,7 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
     </row>
-    <row r="49" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
+    <row r="49" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -31571,7 +31691,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
     </row>
-    <row r="50" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -31609,7 +31729,7 @@
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
     </row>
-    <row r="51" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -31647,7 +31767,7 @@
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
     </row>
-    <row r="52" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -31685,7 +31805,7 @@
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
     </row>
-    <row r="53" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -31723,7 +31843,7 @@
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
     </row>
-    <row r="54" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -31761,7 +31881,7 @@
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
     </row>
-    <row r="55" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -31799,7 +31919,7 @@
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
     </row>
-    <row r="56" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -31837,7 +31957,7 @@
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -31875,7 +31995,7 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -31913,7 +32033,7 @@
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
     </row>
-    <row r="59" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -31951,7 +32071,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -31989,7 +32109,7 @@
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
     </row>
-    <row r="61" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -32027,7 +32147,7 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -32065,7 +32185,7 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
     </row>
-    <row r="63" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -32103,7 +32223,7 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
     </row>
-    <row r="64" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -68281,6 +68401,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="U6:AB7"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="U15:AB16"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A44:AN44"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
@@ -68297,14 +68423,8 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="U6:AB7"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="U15:AB16"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
-  <conditionalFormatting sqref="M15:T20 V35:AC40 AE35:AL40 M23:T32 V23:AC32">
+  <conditionalFormatting sqref="M15:T20 M23:T32 V23:AC32 V35:AC40 AE35:AL40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$AD$2=TRUE</formula>
     </cfRule>

--- a/advanced/Transformer.xlsx
+++ b/advanced/Transformer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/peye9704_colorado_edu/Documents/2024/AIbyHand/spreadsheets/github/ai-by-hand-excel/advanced/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Library/CloudStorage/OneDrive-UCB-O365/2024/AIbyHand/spreadsheets/github/ai-by-hand-excel/advanced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="470" documentId="8_{2E5A64D4-B270-824D-8CBE-5E6901D89F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7DFA6B-5338-4E4D-B04A-7B1938609DA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935CCD55-BE3F-C842-8329-EF4DFD44467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,13 +42,7 @@
     <author>tc={70923F54-3559-094F-BE16-1664E7E198F6}</author>
     <author>tc={B98D24C8-17EF-9543-ABC8-2E47B523FADC}</author>
     <author>tc={85B1847A-EAFE-D34C-8936-324CB32A8C69}</author>
-    <author>tc={AA066A56-BF0B-F849-BBFF-96990A89DB97}</author>
-    <author>tc={575F9D59-2E1D-4149-827B-FAE2EC396ABC}</author>
     <author>tc={429757FA-6499-364E-B686-18036D7CE6FE}</author>
-    <author>tc={59D33A8F-C3A4-9D43-9107-14E53F1932A9}</author>
-    <author>tc={A0D0D70F-412C-D24A-B88A-012888FB50CA}</author>
-    <author>tc={5AD61CD2-8013-1648-843A-496DE8D97AF1}</author>
-    <author>tc={C294AE2C-7260-A246-9D1A-71AC1A72DEC8}</author>
     <author>tc={0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}</author>
     <author>tc={3389D202-7469-3447-B71D-7039948E7C2B}</author>
     <author>tc={B92B3D14-4EF5-AA44-94B2-CD7FCB4CC25E}</author>
@@ -104,35 +98,7 @@
 ↳ Note that the FFN is essentially a multi layer perceptron.</t>
       </text>
     </comment>
-    <comment ref="K18" authorId="5" shapeId="0" xr:uid="{AA066A56-BF0B-F849-BBFF-96990A89DB97}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    # FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</t>
-      </text>
-    </comment>
-    <comment ref="L18" authorId="6" shapeId="0" xr:uid="{575F9D59-2E1D-4149-827B-FAE2EC396ABC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    # FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</t>
-      </text>
-    </comment>
-    <comment ref="P18" authorId="7" shapeId="0" xr:uid="{429757FA-6499-364E-B686-18036D7CE6FE}">
+    <comment ref="P18" authorId="5" shapeId="0" xr:uid="{429757FA-6499-364E-B686-18036D7CE6FE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,63 +107,7 @@
 ↳ Negative values are set to zeros by ReLU.</t>
       </text>
     </comment>
-    <comment ref="J19" authorId="8" shapeId="0" xr:uid="{59D33A8F-C3A4-9D43-9107-14E53F1932A9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    # FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</t>
-      </text>
-    </comment>
-    <comment ref="K19" authorId="9" shapeId="0" xr:uid="{A0D0D70F-412C-D24A-B88A-012888FB50CA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    # FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</t>
-      </text>
-    </comment>
-    <comment ref="J20" authorId="10" shapeId="0" xr:uid="{5AD61CD2-8013-1648-843A-496DE8D97AF1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    # FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</t>
-      </text>
-    </comment>
-    <comment ref="K20" authorId="11" shapeId="0" xr:uid="{C294AE2C-7260-A246-9D1A-71AC1A72DEC8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    # FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</t>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="12" shapeId="0" xr:uid="{0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}">
+    <comment ref="C23" authorId="6" shapeId="0" xr:uid="{0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -205,7 +115,7 @@
     The FFN layer combines features across dimensions (vertically).</t>
       </text>
     </comment>
-    <comment ref="P23" authorId="13" shapeId="0" xr:uid="{3389D202-7469-3447-B71D-7039948E7C2B}">
+    <comment ref="P23" authorId="7" shapeId="0" xr:uid="{3389D202-7469-3447-B71D-7039948E7C2B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +127,7 @@
 ↳ Note that the next block would have a completely separate set of parameters.</t>
       </text>
     </comment>
-    <comment ref="V23" authorId="14" shapeId="0" xr:uid="{B92B3D14-4EF5-AA44-94B2-CD7FCB4CC25E}">
+    <comment ref="V23" authorId="8" shapeId="0" xr:uid="{B92B3D14-4EF5-AA44-94B2-CD7FCB4CC25E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,6 +138,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -450,12 +382,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -878,7 +804,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -965,7 +891,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyAlignment="1">
@@ -1480,63 +1406,9 @@
 ↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
 ↳ Note that the FFN is essentially a multi layer perceptron.</text>
   </threadedComment>
-  <threadedComment ref="K18" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{AA066A56-BF0B-F849-BBFF-96990A89DB97}">
-    <text># FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</text>
-  </threadedComment>
-  <threadedComment ref="L18" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{575F9D59-2E1D-4149-827B-FAE2EC396ABC}">
-    <text># FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</text>
-  </threadedComment>
   <threadedComment ref="P18" dT="2024-09-22T12:04:51.85" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{429757FA-6499-364E-B686-18036D7CE6FE}">
     <text># ReLU
 ↳ Negative values are set to zeros by ReLU.</text>
-  </threadedComment>
-  <threadedComment ref="J19" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{59D33A8F-C3A4-9D43-9107-14E53F1932A9}">
-    <text># FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</text>
-  </threadedComment>
-  <threadedComment ref="K19" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{A0D0D70F-412C-D24A-B88A-012888FB50CA}">
-    <text># FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</text>
-  </threadedComment>
-  <threadedComment ref="J20" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{5AD61CD2-8013-1648-843A-496DE8D97AF1}">
-    <text># FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</text>
-  </threadedComment>
-  <threadedComment ref="K20" dT="2024-09-22T12:03:26.28" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{C294AE2C-7260-A246-9D1A-71AC1A72DEC8}">
-    <text># FFN: First Layer
-↳ Feed all 5 attention weighted features into the first layer.
-↳ Multiply these features with the weights and biases.
-↳ The effect is to combine features across feature dimensions (vertically).
-↳ The dimensionality of each feature is decreased from 4 to 3.
-↳ Note that each position is processed by the same weight matrix. This is what the term "position-wise" is referring to.
-↳ Note that the FFN is essentially a multi layer perceptron.</text>
   </threadedComment>
   <threadedComment ref="C23" dT="2024-09-22T23:51:43.78" personId="{AEB4D18C-55B7-3040-AFB5-61A9D2B4C606}" id="{0D5BA982-E38C-B641-9D2B-43BA3FB8E7CC}">
     <text>The FFN layer combines features across dimensions (vertically).</text>
@@ -1563,7 +1435,7 @@
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2301,21 +2173,21 @@
         <f t="array" ref="J18">MMULT($C18:$G18,J$12:J$16)</f>
         <v>7</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="34" cm="1">
         <f t="array" ref="K18">MMULT($C18:$G18,K$12:K$16)</f>
         <v>13</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="34" cm="1">
         <f t="array" ref="L18">MMULT($C18:$G18,L$12:L$16)</f>
         <v>11</v>
       </c>
-      <c r="M18" s="34">
-        <f t="array" ref="M18">MMULT($C18:$G18,M$6:M$10)</f>
-        <v>3</v>
-      </c>
-      <c r="N18" s="34">
-        <f t="array" ref="N18">MMULT($C18:$G18,N$6:N$10)</f>
-        <v>4</v>
+      <c r="M18" s="34" cm="1">
+        <f t="array" ref="M18">MMULT($C18:$G18,M$12:M$16)</f>
+        <v>9</v>
+      </c>
+      <c r="N18" s="34" cm="1">
+        <f t="array" ref="N18">MMULT($C18:$G18,N$12:N$16)</f>
+        <v>12</v>
       </c>
       <c r="O18" s="23" t="s">
         <v>16</v>
@@ -2334,11 +2206,11 @@
       </c>
       <c r="S18" s="34">
         <f t="shared" ref="S18:S20" si="2">IF(M18&gt;0, M18, 0)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T18" s="34">
         <f t="shared" ref="T18:T20" si="3">IF(N18&gt;0, N18, 0)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2369,25 +2241,25 @@
         <v>3</v>
       </c>
       <c r="I19" s="46"/>
-      <c r="J19" s="34">
+      <c r="J19" s="34" cm="1">
         <f t="array" ref="J19">MMULT($C19:$G19,J$12:J$16)</f>
         <v>8</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="34" cm="1">
         <f t="array" ref="K19">MMULT($C19:$G19,K$12:K$16)</f>
         <v>16</v>
       </c>
-      <c r="L19" s="34">
-        <f t="array" ref="L19">MMULT($C19:$G19,L$6:L$10)</f>
-        <v>6</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="array" ref="M19">MMULT($C19:$G19,M$6:M$10)</f>
-        <v>2</v>
-      </c>
-      <c r="N19" s="34">
-        <f t="array" ref="N19">MMULT($C19:$G19,N$6:N$10)</f>
-        <v>5</v>
+      <c r="L19" s="34" cm="1">
+        <f t="array" ref="L19">MMULT($C19:$G19,L$12:L$16)</f>
+        <v>14</v>
+      </c>
+      <c r="M19" s="34" cm="1">
+        <f t="array" ref="M19">MMULT($C19:$G19,M$12:M$16)</f>
+        <v>10</v>
+      </c>
+      <c r="N19" s="34" cm="1">
+        <f t="array" ref="N19">MMULT($C19:$G19,N$12:N$16)</f>
+        <v>15</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>17</v>
@@ -2402,15 +2274,15 @@
       </c>
       <c r="R19" s="34">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S19" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T19" s="34">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2441,25 +2313,25 @@
         <v>3</v>
       </c>
       <c r="I20" s="46"/>
-      <c r="J20" s="34">
+      <c r="J20" s="34" cm="1">
         <f t="array" ref="J20">MMULT($C20:$G20,J$12:J$16)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="34" cm="1">
         <f t="array" ref="K20">MMULT($C20:$G20,K$12:K$16)</f>
         <v>5</v>
       </c>
-      <c r="L20" s="34">
-        <f t="array" ref="L20">MMULT($C20:$G20,L$6:L$10)</f>
-        <v>-1</v>
-      </c>
-      <c r="M20" s="34">
-        <f t="array" ref="M20">MMULT($C20:$G20,M$6:M$10)</f>
+      <c r="L20" s="34" cm="1">
+        <f t="array" ref="L20">MMULT($C20:$G20,L$12:L$16)</f>
+        <v>7</v>
+      </c>
+      <c r="M20" s="34" cm="1">
+        <f t="array" ref="M20">MMULT($C20:$G20,M$12:M$16)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="34">
-        <f t="array" ref="N20">MMULT($C20:$G20,N$6:N$10)</f>
-        <v>0</v>
+      <c r="N20" s="34" cm="1">
+        <f t="array" ref="N20">MMULT($C20:$G20,N$12:N$16)</f>
+        <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>17</v>
@@ -2474,7 +2346,7 @@
       </c>
       <c r="R20" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S20" s="34">
         <f t="shared" si="2"/>
@@ -2482,7 +2354,7 @@
       </c>
       <c r="T20" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2607,15 +2479,15 @@
       </c>
       <c r="R23" s="34">
         <f t="array" ref="R23">MMULT($K23:$N23,R$18:R$21)</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="S23" s="34">
         <f t="array" ref="S23">MMULT($K23:$N23,S$18:S$21)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="T23" s="34">
         <f t="array" ref="T23">MMULT($K23:$N23,T$18:T$21)</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="U23" s="23" t="s">
         <v>16</v>
@@ -2630,15 +2502,15 @@
       </c>
       <c r="X23" s="34">
         <f t="shared" ref="X23:X26" si="6">IF(R23&gt;0, R23, 0)</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="Y23" s="34">
         <f t="shared" ref="Y23:Y26" si="7">IF(S23&gt;0, S23, 0)</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z23" s="34">
         <f t="shared" ref="Z23:Z26" si="8">IF(T23&gt;0, T23, 0)</f>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="AA23" s="10"/>
     </row>
@@ -2681,11 +2553,11 @@
       </c>
       <c r="S24" s="34">
         <f t="array" ref="S24">MMULT($K24:$N24,S$18:S$21)</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="T24" s="34">
         <f t="array" ref="T24">MMULT($K24:$N24,T$18:T$21)</f>
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>17</v>
@@ -2704,11 +2576,11 @@
       </c>
       <c r="Y24" s="34">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="34">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="10"/>
     </row>
@@ -2747,15 +2619,15 @@
       </c>
       <c r="R25" s="34">
         <f t="array" ref="R25">MMULT($K25:$N25,R$18:R$21)</f>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="S25" s="34">
         <f t="array" ref="S25">MMULT($K25:$N25,S$18:S$21)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="T25" s="34">
         <f t="array" ref="T25">MMULT($K25:$N25,T$18:T$21)</f>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>17</v>
@@ -2770,15 +2642,15 @@
       </c>
       <c r="X25" s="34">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Y25" s="34">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Z25" s="34">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AA25" s="10"/>
     </row>
@@ -2817,7 +2689,7 @@
       </c>
       <c r="R26" s="34">
         <f t="array" ref="R26">MMULT($K26:$N26,R$18:R$21)</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="S26" s="34">
         <f t="array" ref="S26">MMULT($K26:$N26,S$18:S$21)</f>
@@ -2825,7 +2697,7 @@
       </c>
       <c r="T26" s="34">
         <f t="array" ref="T26">MMULT($K26:$N26,T$18:T$21)</f>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>17</v>
@@ -28244,7 +28116,7 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
   </mergeCells>
-  <conditionalFormatting sqref="J12:N15 P18:T20 P23:T26 V23:Z26 J18:N20">
+  <conditionalFormatting sqref="J12:N15 J18:N20 P18:T20 P23:T26 V23:Z26">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$U$2=TRUE</formula>
     </cfRule>
@@ -28262,7 +28134,7 @@
   <dimension ref="A1:AN1015"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29567,7 +29439,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="46"/>
-      <c r="M23" s="34">
+      <c r="M23" s="34" cm="1">
         <f t="array" ref="M23">MMULT($D23:$J23,M$15:M$21)</f>
         <v>4</v>
       </c>
@@ -68401,12 +68273,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="U6:AB7"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="U15:AB16"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A44:AN44"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
@@ -68423,6 +68289,12 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="U6:AB7"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="U15:AB16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <conditionalFormatting sqref="M15:T20 M23:T32 V23:AC32 V35:AC40 AE35:AL40">
     <cfRule type="expression" dxfId="0" priority="1">
